--- a/field_data/rss_distance_test/rssi_distance_calibration_nodes.xlsx
+++ b/field_data/rss_distance_test/rssi_distance_calibration_nodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/academia/institutions/WUR/courses/WIAS/WIAS_AnimalTracking/field_data/rss_distance_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/git/WIAS_tracking_course/field_data/rss_distance_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB561BEB-A4B4-5141-A257-6BECCE27F20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1E1082-27B6-EE46-B5B0-C85F1EDB5FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{904C4A86-AC86-F046-867D-7EECA82373E5}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>node</t>
+  </si>
+  <si>
+    <t>325f14</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183DE2B4-6F22-2340-8920-187E44F11591}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -403,6 +406,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/field_data/rss_distance_test/rssi_distance_calibration_nodes.xlsx
+++ b/field_data/rss_distance_test/rssi_distance_calibration_nodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyson/Documents/git/WIAS_tracking_course/field_data/rss_distance_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1E1082-27B6-EE46-B5B0-C85F1EDB5FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E4BD6B-343E-F645-9612-F43E2054F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{904C4A86-AC86-F046-867D-7EECA82373E5}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>node</t>
-  </si>
-  <si>
-    <t>325f14</t>
   </si>
 </sst>
 </file>
@@ -393,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183DE2B4-6F22-2340-8920-187E44F11591}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -406,11 +403,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
